--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2125481.645628253</v>
+        <v>2122464.055227316</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>180.8840510798602</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>188.3401863080892</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>281.6126679114866</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>149.8794763036717</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>369.2668182234781</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>105.0839683962655</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>52.61100976783545</v>
+        <v>22.35002255071598</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>273.6361929743161</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>160.4034471042932</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>3.762354060214287</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>245.9555222332797</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896904</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>60.54139430664167</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>21.86696197154537</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>107.5009259672063</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,19 +1819,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>175.0698676614148</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1859,10 +1859,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056512</v>
+        <v>33.3514698018588</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>46.17260076820872</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>265.5504164580107</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,19 +2366,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2476,19 +2476,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4762883860743</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2530,16 +2530,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>235.2707607354173</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>3.347695664762908</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>101.1426547140132</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2843,7 +2843,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2950,22 +2950,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>13.60014786677509</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>5.107731335945625</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3007,13 +3007,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3086,7 +3086,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>110.1707519847948</v>
       </c>
       <c r="X34" t="n">
-        <v>49.58144246360794</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>130.4966170451661</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>50.298032680179</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>66.140852155354</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>33.32815808118189</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>146.2787299119459</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>14.73664328357096</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,10 +4189,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>170.5809693952293</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1782.111371249201</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C2" t="n">
-        <v>1413.148854308789</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="D2" t="n">
-        <v>1054.883155702039</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="E2" t="n">
-        <v>669.0949031037944</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="F2" t="n">
-        <v>258.1089983141869</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>244.1855942527778</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.111371249201</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X2" t="n">
-        <v>1782.111371249201</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y2" t="n">
-        <v>1782.111371249201</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="3">
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4519,19 +4519,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>443.6717438918015</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>443.6717438918015</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>443.6717438918015</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>443.6717438918015</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1683.829970582157</v>
+        <v>2255.520561484592</v>
       </c>
       <c r="C5" t="n">
-        <v>1683.829970582157</v>
+        <v>1886.558044544181</v>
       </c>
       <c r="D5" t="n">
-        <v>1325.564271975406</v>
+        <v>1528.29234593743</v>
       </c>
       <c r="E5" t="n">
-        <v>1325.564271975406</v>
+        <v>1142.504093339186</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>731.5181885495783</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>313.5543804477652</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,37 +4580,37 @@
         <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843237</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="W5" t="n">
-        <v>2057.295728843237</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="X5" t="n">
-        <v>1683.829970582157</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="Y5" t="n">
-        <v>1683.829970582157</v>
+        <v>2642.120401548714</v>
       </c>
     </row>
     <row r="6">
@@ -4635,34 +4635,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>243.4143268306409</v>
+        <v>245.4549451025299</v>
       </c>
       <c r="C7" t="n">
-        <v>243.4143268306409</v>
+        <v>76.51876217462299</v>
       </c>
       <c r="D7" t="n">
-        <v>243.4143268306409</v>
+        <v>76.51876217462299</v>
       </c>
       <c r="E7" t="n">
-        <v>243.4143268306409</v>
+        <v>76.51876217462299</v>
       </c>
       <c r="F7" t="n">
-        <v>243.4143268306409</v>
+        <v>76.51876217462299</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286582</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U7" t="n">
-        <v>471.4038777286582</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V7" t="n">
-        <v>471.4038777286582</v>
+        <v>473.4444960005472</v>
       </c>
       <c r="W7" t="n">
-        <v>471.4038777286582</v>
+        <v>473.4444960005472</v>
       </c>
       <c r="X7" t="n">
-        <v>243.4143268306409</v>
+        <v>245.4549451025299</v>
       </c>
       <c r="Y7" t="n">
-        <v>243.4143268306409</v>
+        <v>245.4549451025299</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1894.539591564835</v>
+        <v>1998.219284210995</v>
       </c>
       <c r="C8" t="n">
-        <v>1525.577074624423</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D8" t="n">
-        <v>1525.577074624423</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
         <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>952.5674858910852</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>534.6036777892721</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834949</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834949</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W8" t="n">
-        <v>1894.539591564835</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X8" t="n">
-        <v>1894.539591564835</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y8" t="n">
-        <v>1894.539591564835</v>
+        <v>1998.219284210995</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>261.14823645728</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C10" t="n">
-        <v>261.14823645728</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>261.14823645728</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>261.14823645728</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>261.14823645728</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>261.14823645728</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>103.3998638898102</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942406</v>
+        <v>479.6890627586768</v>
       </c>
       <c r="W10" t="n">
-        <v>261.14823645728</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="X10" t="n">
-        <v>261.14823645728</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y10" t="n">
-        <v>261.14823645728</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="11">
@@ -5018,46 +5018,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155878</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,13 +5066,13 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
         <v>3931.29497012173</v>
@@ -5127,7 +5127,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
         <v>1558.376451307619</v>
@@ -5136,7 +5136,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>420.3226148324574</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="C13" t="n">
-        <v>420.3226148324574</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D13" t="n">
-        <v>420.3226148324574</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E13" t="n">
-        <v>420.3226148324574</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F13" t="n">
-        <v>420.3226148324574</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
         <v>359.1696912903951</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1476.828430182604</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1476.828430182604</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1476.828430182604</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>1476.828430182604</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324574</v>
+        <v>1476.828430182604</v>
       </c>
       <c r="W13" t="n">
-        <v>420.3226148324574</v>
+        <v>1476.828430182604</v>
       </c>
       <c r="X13" t="n">
-        <v>420.3226148324574</v>
+        <v>1248.838879284587</v>
       </c>
       <c r="Y13" t="n">
-        <v>420.3226148324574</v>
+        <v>1028.046300141057</v>
       </c>
     </row>
     <row r="14">
@@ -5279,16 +5279,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5358,25 +5358,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619856</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>672.7698012891906</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C16" t="n">
-        <v>503.8336183612837</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D16" t="n">
-        <v>353.7169789489479</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E16" t="n">
-        <v>205.8038853665548</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>1075.21084526296</v>
+        <v>498.168852875299</v>
       </c>
       <c r="W16" t="n">
-        <v>1075.21084526296</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="X16" t="n">
-        <v>1075.21084526296</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y16" t="n">
-        <v>854.4182661194303</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5522,22 +5522,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231263</v>
@@ -5580,40 +5580,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.440640161986</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441948</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765184</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706316</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W19" t="n">
-        <v>241.980548233671</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5750,10 +5750,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,16 +5762,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5783,19 +5783,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,16 +5829,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3627.330715596855</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C22" t="n">
-        <v>3627.330715596855</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="D22" t="n">
-        <v>3627.330715596855</v>
+        <v>718.3690362737796</v>
       </c>
       <c r="E22" t="n">
-        <v>3627.330715596855</v>
+        <v>570.4559426913864</v>
       </c>
       <c r="F22" t="n">
-        <v>3627.330715596855</v>
+        <v>423.5659951934761</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>255.3906735132967</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4525.994054365623</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>4525.994054365623</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>4525.994054365623</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W22" t="n">
-        <v>4257.761310468642</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X22" t="n">
-        <v>4029.771759570625</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y22" t="n">
-        <v>3808.979180427095</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="23">
@@ -5987,10 +5987,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6066,28 +6066,28 @@
         <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263798</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465858</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L24" t="n">
-        <v>2771.824048372322</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M24" t="n">
-        <v>3540.192194764783</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N24" t="n">
-        <v>4289.159124556162</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O24" t="n">
-        <v>4568.699189774859</v>
+        <v>4075.197584164472</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.721670557069</v>
+        <v>4555.115143601278</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R24" t="n">
         <v>4860.854573014292</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3924131404652</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>562.3815454271727</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2649060148369</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2649060148369</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>265.3749585169265</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6178,19 +6178,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1037.48362228133</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>782.7991340754431</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>493.3819640384826</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X25" t="n">
-        <v>265.3924131404652</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="Y25" t="n">
-        <v>265.3924131404652</v>
+        <v>731.3177283550796</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6248,28 +6248,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1841.189502980821</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>994.3109288932103</v>
+        <v>100.5986022327736</v>
       </c>
       <c r="C28" t="n">
-        <v>825.3747459653034</v>
+        <v>100.5986022327736</v>
       </c>
       <c r="D28" t="n">
-        <v>675.2581065529677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6412,22 +6412,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557902</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X28" t="n">
-        <v>1396.75197286698</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y28" t="n">
-        <v>1175.95939372345</v>
+        <v>282.2470670630133</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822467</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,28 +6479,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095317</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115523</v>
+        <v>3433.369836656377</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>3740.689969936339</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>4070.552597600372</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>4350.092662819069</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>4555.115143601279</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916993</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>208.7516828383384</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="C31" t="n">
-        <v>208.7516828383384</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D31" t="n">
-        <v>208.7516828383384</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6625,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6646,25 +6646,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1493.756945976139</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1269.971530765645</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>980.8428919792032</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>726.1584037733163</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W31" t="n">
-        <v>436.7412337363557</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X31" t="n">
-        <v>208.7516828383384</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="Y31" t="n">
-        <v>208.7516828383384</v>
+        <v>986.0022165609664</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6698,7 +6698,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6710,10 +6710,10 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899127</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2525.058920465858</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L33" t="n">
-        <v>2771.824048372322</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M33" t="n">
-        <v>3484.747546292012</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>4289.159124556162</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>4568.699189774859</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4184.545848715274</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="C34" t="n">
-        <v>4015.609665787366</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D34" t="n">
-        <v>3865.493026375031</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E34" t="n">
-        <v>3717.579932792637</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F34" t="n">
-        <v>3570.689985294727</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>3570.689985294727</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>4637.069157803799</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U34" t="n">
-        <v>4637.069157803799</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V34" t="n">
-        <v>4637.069157803799</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W34" t="n">
-        <v>4637.069157803799</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="X34" t="n">
-        <v>4586.986892689043</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="Y34" t="n">
-        <v>4366.194313545513</v>
+        <v>563.7235151749151</v>
       </c>
     </row>
     <row r="35">
@@ -6935,10 +6935,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3741.086798021097</v>
+        <v>676.0189678006951</v>
       </c>
       <c r="C37" t="n">
-        <v>3741.086798021097</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D37" t="n">
-        <v>3590.970158608762</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1448.11017694156</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929845</v>
+        <v>1448.11017694156</v>
       </c>
       <c r="T37" t="n">
-        <v>4660.934562929845</v>
+        <v>1448.11017694156</v>
       </c>
       <c r="U37" t="n">
-        <v>4660.934562929845</v>
+        <v>1448.11017694156</v>
       </c>
       <c r="V37" t="n">
-        <v>4660.934562929845</v>
+        <v>1193.425688735673</v>
       </c>
       <c r="W37" t="n">
-        <v>4371.517392892884</v>
+        <v>904.0085186987125</v>
       </c>
       <c r="X37" t="n">
-        <v>4143.527841994867</v>
+        <v>676.0189678006951</v>
       </c>
       <c r="Y37" t="n">
-        <v>3922.735262851337</v>
+        <v>676.0189678006951</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>482.6193631635866</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>314.4440414834072</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>164.0260330313505</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7357,25 +7357,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>467.9934022109801</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>299.0572192830732</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>1009.867621687013</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V43" t="n">
-        <v>755.183133481126</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W43" t="n">
-        <v>465.7659634441654</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>870.43444618475</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>649.6418670412198</v>
       </c>
     </row>
     <row r="44">
@@ -7646,13 +7646,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7661,7 +7661,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899127</v>
@@ -7731,22 +7731,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3941.006808105545</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
-        <v>3772.070625177638</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>3621.953985765302</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>3474.040892182909</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>4860.854573014292</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>4860.854573014292</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>4571.437402977332</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>4343.447852079315</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y46" t="n">
-        <v>4122.655272935785</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
   </sheetData>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747117</v>
+        <v>90.64146763747218</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783517</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747218</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9006,10 +9006,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>360.5026862907262</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>423.3376789165111</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208048</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>285.1031356539331</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.409182577675</v>
+        <v>277.6717966208045</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>105.9521741567359</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.09739043224744</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>37.92012205572496</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>77.06777566241323</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338591</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24130,22 +24130,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>102.7412275993274</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>20.97258187858029</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,19 +24364,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.0172800773032975</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24418,16 +24418,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>50.96659166316002</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>145.2677773534494</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,19 +24652,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>124.5670006750239</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>153.6466732318528</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>192.8130786476576</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>176.3522463517962</v>
       </c>
       <c r="X34" t="n">
-        <v>176.1282129254292</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,16 +25309,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>15.93734560140305</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25327,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>59.66631972361379</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25369,7 +25369,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>44.27839330891798</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25597,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>115.2873149370305</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25831,25 +25831,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>79.43092547709122</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,22 +26020,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>130.6844047393603</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26077,10 +26077,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>48.00368395686547</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583912</v>
+      </c>
+      <c r="C2" t="n">
+        <v>554203.1946583909</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583911</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583912</v>
-      </c>
-      <c r="D2" t="n">
-        <v>554203.1946583913</v>
-      </c>
       <c r="E2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="F2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="G2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="H2" t="n">
         <v>527889.2306459072</v>
       </c>
-      <c r="H2" t="n">
-        <v>527889.2306459068</v>
-      </c>
       <c r="I2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="J2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="K2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>527889.2306459069</v>
       </c>
-      <c r="L2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="M2" t="n">
-        <v>527889.2306459071</v>
-      </c>
       <c r="N2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="O2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459073</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.5006543095</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143912</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340944</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26506,10 +26506,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-274983.5063613183</v>
+        <v>-275398.7208707854</v>
       </c>
       <c r="C6" t="n">
-        <v>314984.3728532264</v>
+        <v>314569.158343759</v>
       </c>
       <c r="D6" t="n">
-        <v>314984.3728532265</v>
+        <v>314569.1583437589</v>
       </c>
       <c r="E6" t="n">
-        <v>-103969.632434015</v>
+        <v>-104303.8014011451</v>
       </c>
       <c r="F6" t="n">
-        <v>421190.4040428809</v>
+        <v>420856.2350757513</v>
       </c>
       <c r="G6" t="n">
-        <v>421190.4040428813</v>
+        <v>420856.2350757514</v>
       </c>
       <c r="H6" t="n">
-        <v>421190.4040428806</v>
+        <v>420856.2350757516</v>
       </c>
       <c r="I6" t="n">
-        <v>421190.4040428807</v>
+        <v>420856.2350757514</v>
       </c>
       <c r="J6" t="n">
-        <v>244767.1848502879</v>
+        <v>244433.0158831586</v>
       </c>
       <c r="K6" t="n">
-        <v>421190.4040428807</v>
+        <v>420856.2350757513</v>
       </c>
       <c r="L6" t="n">
-        <v>421190.404042881</v>
+        <v>420856.2350757513</v>
       </c>
       <c r="M6" t="n">
-        <v>286389.3888090439</v>
+        <v>286055.219841914</v>
       </c>
       <c r="N6" t="n">
-        <v>421190.4040428807</v>
+        <v>420856.2350757516</v>
       </c>
       <c r="O6" t="n">
-        <v>421190.404042881</v>
+        <v>420856.2350757516</v>
       </c>
       <c r="P6" t="n">
-        <v>421190.4040428807</v>
+        <v>420856.2350757517</v>
       </c>
     </row>
   </sheetData>
@@ -26738,22 +26738,22 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>225.9919946618513</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>135.582586456268</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>4.669206330491136</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>68.70517704842311</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>37.60922751823335</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>218.8388043680917</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>114.6987924912155</v>
+        <v>144.9597797083349</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>91.63669879669141</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>221.5269229679686</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>131.2032677321239</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>6.182121090548293</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32403,10 +32403,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32640,10 +32640,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535713</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535713</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,19 +35495,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221117</v>
@@ -35726,10 +35726,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
@@ -35741,13 +35741,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>609.7603912467504</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523295</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36686,16 +36686,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>492.1965505854578</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875336993</v>
+        <v>526.9295015768288</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36932,7 +36932,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37634,16 +37634,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,16 +37780,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37950,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,16 +38017,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2122464.055227316</v>
+        <v>2197993.724892121</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10017056.05358072</v>
+        <v>10017056.05358071</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>317.077902616186</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>180.8840510798602</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -820,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>12.39397944700498</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>149.8794763036717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>105.0839683962655</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481175</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>154.2870800317239</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>22.35002255071598</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>78.32618729827837</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>273.6361929743161</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>97.2917318315593</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481175</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>245.9555222332797</v>
+        <v>81.64802493589323</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896904</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.86696197154537</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>104.7368409040601</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1765,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1813,25 +1815,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>197.7004612035273</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>175.0698676614148</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -1898,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2056,19 +2058,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>66.87635383915804</v>
       </c>
       <c r="X19" t="n">
-        <v>33.3514698018588</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2254,10 +2256,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>46.17260076820872</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>108.3636623682363</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2299,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4762883860743</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>277.4989509147691</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2567,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>3.347695664762908</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>44.1476281077171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>13.60014786677509</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>85.59160853911054</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3086,7 +3088,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>171.6207064640081</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,13 +3198,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>110.1707519847948</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>50.298032680179</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>174.9428846697292</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>66.140852155354</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>101.4169444883359</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>33.32815808118189</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3955,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>19.37988086577769</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>132.2862074358172</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>170.5809693952293</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>808.0839286340174</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="C2" t="n">
-        <v>808.0839286340174</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="D2" t="n">
-        <v>808.0839286340174</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E2" t="n">
-        <v>808.0839286340174</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>1584.823100673951</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y2" t="n">
-        <v>1194.683768698139</v>
+        <v>722.2873163082934</v>
       </c>
     </row>
     <row r="3">
@@ -4398,40 +4400,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.7460229006679</v>
+        <v>488.3016257164451</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>488.3016257164451</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>488.3016257164451</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>488.3016257164451</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>488.3016257164451</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084171</v>
+        <v>488.3016257164451</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.7460229006679</v>
+        <v>488.3016257164451</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2255.520561484592</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="C5" t="n">
-        <v>1886.558044544181</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D5" t="n">
-        <v>1528.29234593743</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>1142.504093339186</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>731.5181885495783</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>313.5543804477652</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,37 +4582,37 @@
         <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548714</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548714</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548714</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548714</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548714</v>
+        <v>2056.335593115397</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548714</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548714</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="Y5" t="n">
-        <v>2642.120401548714</v>
+        <v>1703.566937845283</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>245.4549451025299</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C7" t="n">
-        <v>76.51876217462299</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D7" t="n">
-        <v>76.51876217462299</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E7" t="n">
-        <v>76.51876217462299</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F7" t="n">
-        <v>76.51876217462299</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036442</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064341</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064341</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064341</v>
+        <v>500.8649647332663</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064341</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005472</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005472</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="X7" t="n">
-        <v>245.4549451025299</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y7" t="n">
-        <v>245.4549451025299</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1998.219284210995</v>
+        <v>962.91501986716</v>
       </c>
       <c r="C8" t="n">
-        <v>1721.819089287443</v>
+        <v>962.91501986716</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910852</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.6036777892721</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252749</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.358616186807</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X8" t="n">
-        <v>2388.358616186807</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="Y8" t="n">
-        <v>1998.219284210995</v>
+        <v>1349.514859931282</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>2173.079728044489</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>2173.079728044489</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="V10" t="n">
-        <v>479.6890627586768</v>
+        <v>2173.079728044489</v>
       </c>
       <c r="W10" t="n">
-        <v>190.2718927217162</v>
+        <v>2173.079728044489</v>
       </c>
       <c r="X10" t="n">
-        <v>190.2718927217162</v>
+        <v>2173.079728044489</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.2718927217162</v>
+        <v>2173.079728044489</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5023,13 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155878</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5036,19 +5038,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5060,10 +5062,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231263</v>
@@ -5075,13 +5077,13 @@
         <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2358.217138262064</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>846.3978353108171</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="C13" t="n">
-        <v>677.4616523829102</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D13" t="n">
-        <v>527.3450129705744</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1476.828430182604</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1476.828430182604</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1476.828430182604</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1476.828430182604</v>
+        <v>898.792518248838</v>
       </c>
       <c r="V13" t="n">
-        <v>1476.828430182604</v>
+        <v>644.1080300429511</v>
       </c>
       <c r="W13" t="n">
-        <v>1476.828430182604</v>
+        <v>538.3132412509711</v>
       </c>
       <c r="X13" t="n">
-        <v>1248.838879284587</v>
+        <v>538.3132412509711</v>
       </c>
       <c r="Y13" t="n">
-        <v>1028.046300141057</v>
+        <v>538.3132412509711</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5273,37 +5275,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5361,22 +5363,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>208.7516828383384</v>
+        <v>678.2225136306376</v>
       </c>
       <c r="C16" t="n">
-        <v>208.7516828383384</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
@@ -5461,25 +5463,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1188.143731560609</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1188.143731560609</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>899.0150927741678</v>
       </c>
       <c r="V16" t="n">
-        <v>498.168852875299</v>
+        <v>899.0150927741678</v>
       </c>
       <c r="W16" t="n">
-        <v>208.7516828383384</v>
+        <v>899.0150927741678</v>
       </c>
       <c r="X16" t="n">
-        <v>208.7516828383384</v>
+        <v>899.0150927741678</v>
       </c>
       <c r="Y16" t="n">
-        <v>208.7516828383384</v>
+        <v>678.2225136306376</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5580,40 +5582,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1196.088769018223</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1503.408902298185</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N18" t="n">
-        <v>1833.271529962218</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>2112.811595180915</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028583</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5704,19 +5706,19 @@
         <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383442</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324574</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W19" t="n">
-        <v>130.9054447954967</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028583</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028583</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5743,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822463</v>
@@ -5750,13 +5752,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5829,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>868.4856756861153</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C22" t="n">
-        <v>868.4856756861153</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D22" t="n">
-        <v>718.3690362737796</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E22" t="n">
-        <v>570.4559426913864</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>423.5659951934761</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>255.3906735132967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1389.458025741502</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1389.458025741502</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1389.458025741502</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1389.458025741502</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>1389.458025741502</v>
       </c>
       <c r="W22" t="n">
-        <v>1498.916270557902</v>
+        <v>1100.040855704541</v>
       </c>
       <c r="X22" t="n">
-        <v>1270.926719659885</v>
+        <v>1100.040855704541</v>
       </c>
       <c r="Y22" t="n">
-        <v>1050.134140516355</v>
+        <v>879.2482765610114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5968,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5990,10 +5992,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6011,22 +6013,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095316</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.47475800178</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281741</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945774</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.197584164472</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>4555.115143601278</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>731.3177283550796</v>
+        <v>4241.487948057122</v>
       </c>
       <c r="C25" t="n">
-        <v>562.3815454271727</v>
+        <v>4072.551765129214</v>
       </c>
       <c r="D25" t="n">
-        <v>412.2649060148369</v>
+        <v>4072.551765129214</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2649060148369</v>
+        <v>3924.638671546821</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3749585169265</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="W25" t="n">
-        <v>731.3177283550796</v>
+        <v>4469.477498955139</v>
       </c>
       <c r="X25" t="n">
-        <v>731.3177283550796</v>
+        <v>4241.487948057122</v>
       </c>
       <c r="Y25" t="n">
-        <v>731.3177283550796</v>
+        <v>4241.487948057122</v>
       </c>
     </row>
     <row r="26">
@@ -6203,25 +6205,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6242,31 +6244,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.5986022327736</v>
+        <v>757.4105722479369</v>
       </c>
       <c r="C28" t="n">
-        <v>100.5986022327736</v>
+        <v>757.4105722479369</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>607.2939328356011</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>607.2939328356011</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>460.4039853376908</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>292.2286636575113</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>141.8106552054546</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6397,37 +6399,37 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="V28" t="n">
-        <v>1020.446367141521</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="W28" t="n">
-        <v>731.0291971045608</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="X28" t="n">
-        <v>503.0396462065435</v>
+        <v>1159.851616221707</v>
       </c>
       <c r="Y28" t="n">
-        <v>282.2470670630133</v>
+        <v>939.0590370781766</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805475</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822467</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,34 +6481,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250804</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095317</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>3433.369836656377</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>3740.689969936339</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N30" t="n">
-        <v>4070.552597600372</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>4350.092662819069</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>4555.115143601279</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>4850.224560916993</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>986.0022165609664</v>
+        <v>3778.208216256918</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632138</v>
+        <v>3609.272033329011</v>
       </c>
       <c r="D31" t="n">
-        <v>822.148054050878</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684849</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705745</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>4663.323299334592</v>
       </c>
       <c r="V31" t="n">
-        <v>986.0022165609664</v>
+        <v>4408.638811128705</v>
       </c>
       <c r="W31" t="n">
-        <v>986.0022165609664</v>
+        <v>4408.638811128705</v>
       </c>
       <c r="X31" t="n">
-        <v>986.0022165609664</v>
+        <v>4180.649260230688</v>
       </c>
       <c r="Y31" t="n">
-        <v>986.0022165609664</v>
+        <v>3959.856681087158</v>
       </c>
     </row>
     <row r="32">
@@ -6695,55 +6697,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>563.7235151749151</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C34" t="n">
-        <v>563.7235151749151</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D34" t="n">
-        <v>563.7235151749151</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E34" t="n">
-        <v>415.8104215925219</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241918</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688032</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799324</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471153</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="T34" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="U34" t="n">
-        <v>675.0071030383442</v>
+        <v>1209.787631771457</v>
       </c>
       <c r="V34" t="n">
-        <v>675.0071030383442</v>
+        <v>955.1031435655699</v>
       </c>
       <c r="W34" t="n">
-        <v>563.7235151749151</v>
+        <v>955.1031435655699</v>
       </c>
       <c r="X34" t="n">
-        <v>563.7235151749151</v>
+        <v>955.1031435655699</v>
       </c>
       <c r="Y34" t="n">
-        <v>563.7235151749151</v>
+        <v>734.3105644220398</v>
       </c>
     </row>
     <row r="35">
@@ -6935,7 +6937,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -6971,7 +6973,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
@@ -7014,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>676.0189678006951</v>
+        <v>695.9798268587604</v>
       </c>
       <c r="C37" t="n">
-        <v>507.0827848727882</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="D37" t="n">
-        <v>507.0827848727882</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E37" t="n">
-        <v>359.1696912903951</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F37" t="n">
-        <v>359.1696912903951</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
         <v>208.7516828383384</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1448.11017694156</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1448.11017694156</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1448.11017694156</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1448.11017694156</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V37" t="n">
-        <v>1193.425688735673</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W37" t="n">
-        <v>904.0085186987125</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X37" t="n">
-        <v>676.0189678006951</v>
+        <v>1098.42087083253</v>
       </c>
       <c r="Y37" t="n">
-        <v>676.0189678006951</v>
+        <v>877.6282916890001</v>
       </c>
     </row>
     <row r="38">
@@ -7151,46 +7153,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7205,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>229.0333923118347</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>378.1030765138945</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1096.475226584133</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C40" t="n">
-        <v>927.5390436562259</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D40" t="n">
-        <v>777.4224042438901</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E40" t="n">
-        <v>629.509310661497</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>482.6193631635866</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>314.4440414834072</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>164.0260330313505</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>683.6408484074925</v>
       </c>
       <c r="W40" t="n">
-        <v>1498.916270557902</v>
+        <v>394.223678370532</v>
       </c>
       <c r="X40" t="n">
-        <v>1498.916270557902</v>
+        <v>394.223678370532</v>
       </c>
       <c r="Y40" t="n">
-        <v>1278.123691414372</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7409,28 +7411,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7454,7 +7456,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7491,25 +7493,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>1196.088769018223</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M42" t="n">
-        <v>1503.408902298185</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N42" t="n">
-        <v>1833.271529962218</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>467.9934022109801</v>
+        <v>525.6009593486384</v>
       </c>
       <c r="C43" t="n">
-        <v>299.0572192830732</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1387.841167119728</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>1098.423997082767</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>870.43444618475</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>649.6418670412198</v>
+        <v>707.2494241788781</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7640,31 +7642,31 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7679,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L45" t="n">
-        <v>1196.088769018223</v>
+        <v>3190.928350499668</v>
       </c>
       <c r="M45" t="n">
-        <v>1503.408902298185</v>
+        <v>3959.29649689213</v>
       </c>
       <c r="N45" t="n">
-        <v>1833.271529962218</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S45" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>265.3924131404652</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C46" t="n">
-        <v>265.3924131404652</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7837,19 +7839,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X46" t="n">
-        <v>437.6964226305959</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y46" t="n">
-        <v>265.3924131404652</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747218</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747218</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229594</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>199.6230805871088</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9264,7 +9266,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>38.86002301949878</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9720,10 +9722,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>127.6461250100646</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208048</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>308.1251096272039</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>277.6717966208045</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>230.7151863772035</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>414.5002179180844</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>91.23759968302144</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11069,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,28 +11141,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>297.2466435761031</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>277.6717966208062</v>
+        <v>158.8724419039325</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11394,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23264,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23416,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.09739043224744</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>181.7861574325308</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>0.2203487800759376</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>77.06777566241323</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23944,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>219.646644497433</v>
       </c>
       <c r="X19" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>102.7412275993274</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>1.600690035556454</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24187,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0172800773032975</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>9.024047421821933</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24604,22 +24606,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>145.2677773534494</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>66.27161735655488</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>153.6466732318528</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>200.6457438594668</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>8.211273717929174</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>176.3522463517962</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>59.66631972361379</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>50.76677071930794</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>44.27839330891798</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>150.7206988354921</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>115.2873149370305</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25843,7 +25845,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>199.2047724863171</v>
       </c>
     </row>
     <row r="44">
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>13.13484058711404</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26077,19 +26079,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.00368395686547</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>854970.3543669375</v>
+        <v>854970.3543669374</v>
       </c>
     </row>
     <row r="6">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>854970.3543669375</v>
+        <v>854970.3543669373</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>854970.3543669375</v>
+        <v>854970.3543669377</v>
       </c>
     </row>
     <row r="14">
@@ -26314,34 +26316,34 @@
         <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583911</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583909</v>
-      </c>
-      <c r="D2" t="n">
-        <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="F2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="G2" t="n">
         <v>527889.230645907</v>
-      </c>
-      <c r="G2" t="n">
-        <v>527889.2306459071</v>
       </c>
       <c r="H2" t="n">
         <v>527889.2306459072</v>
       </c>
       <c r="I2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="J2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="K2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="L2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="M2" t="n">
         <v>527889.2306459069</v>
@@ -26350,10 +26352,10 @@
         <v>527889.2306459072</v>
       </c>
       <c r="O2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.2306459073</v>
+        <v>527889.2306459068</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.695895773285884e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,31 +26420,31 @@
         <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
         <v>15045.6696214391</v>
@@ -26470,19 +26472,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340944</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26491,25 +26493,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26528,13 +26530,13 @@
         <v>314569.1583437589</v>
       </c>
       <c r="E6" t="n">
-        <v>-104303.8014011451</v>
+        <v>-104303.8014011447</v>
       </c>
       <c r="F6" t="n">
+        <v>420856.235075751</v>
+      </c>
+      <c r="G6" t="n">
         <v>420856.2350757513</v>
-      </c>
-      <c r="G6" t="n">
-        <v>420856.2350757514</v>
       </c>
       <c r="H6" t="n">
         <v>420856.2350757516</v>
@@ -26543,13 +26545,13 @@
         <v>420856.2350757514</v>
       </c>
       <c r="J6" t="n">
-        <v>244433.0158831586</v>
+        <v>244433.0158831584</v>
       </c>
       <c r="K6" t="n">
-        <v>420856.2350757513</v>
+        <v>420856.2350757514</v>
       </c>
       <c r="L6" t="n">
-        <v>420856.2350757513</v>
+        <v>420856.2350757512</v>
       </c>
       <c r="M6" t="n">
         <v>286055.219841914</v>
@@ -26558,10 +26560,10 @@
         <v>420856.2350757516</v>
       </c>
       <c r="O6" t="n">
-        <v>420856.2350757516</v>
+        <v>420856.2350757511</v>
       </c>
       <c r="P6" t="n">
-        <v>420856.2350757517</v>
+        <v>420856.235075751</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26756,28 +26758,28 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>48.19498915482154</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>225.9919946618513</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27432,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27540,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>273.8878947949727</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>68.70517704842311</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>218.8388043680917</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>173.465178438411</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>144.9597797083349</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>146.7089181598059</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>91.63669879669141</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>257.3913097891236</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27906,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28014,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28055,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>6.182121090548293</v>
+        <v>170.4896183879348</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29287,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29469,7 +29471,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>-2.53354608527818e-12</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -29746,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29928,7 +29930,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>-2.53354608527818e-12</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,31 +31357,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32701,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770687</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535713</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,25 +35175,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535713</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734255</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.0367344586612</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,7 +35731,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
@@ -35741,13 +35743,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>510.0474576375751</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
@@ -35984,7 +35986,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>349.2844000699651</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36361,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523295</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>618.5494866776701</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515205989</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>526.9295015768288</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>541.1395634276697</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>384.9870895382559</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556155</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37391,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>747.6947913160973</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>133.1477786379281</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,16 +37782,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>579.6103458172112</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38035,10 +38037,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>526.9295015768305</v>
+        <v>408.1301468599568</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2197993.724892121</v>
+        <v>2190976.710000411</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>317.077902616186</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>360.4840829176713</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>12.39397944700498</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>244.3347706079418</v>
       </c>
       <c r="V5" t="n">
-        <v>154.2870800317239</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1059,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>59.66385641544539</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>78.32618729827837</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>97.2917318315593</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>163.8950372953901</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>81.64802493589323</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>104.7368409040601</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.7004612035273</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>148.0810297139086</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>170.5809693952292</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>66.87635383915804</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>108.3636623682363</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>143.3158222056514</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>58.40168825977442</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>277.4989509147691</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>44.1476281077171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>85.59160853911054</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>171.6207064640081</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>26.97444673954864</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>174.9428846697292</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>101.4169444883359</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.37988086577769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="F46" t="n">
-        <v>132.2862074358172</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>722.2873163082934</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>402.0066065949742</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>402.0066065949742</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E2" t="n">
-        <v>402.0066065949742</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>898.729014069748</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1112.426648284105</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>722.2873163082934</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,13 +4421,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>488.3016257164451</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>488.3016257164451</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>338.1849863041093</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4518,22 +4518,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>488.3016257164451</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>488.3016257164451</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>488.3016257164451</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>488.3016257164451</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>488.3016257164451</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1703.566937845283</v>
+        <v>1686.741202187451</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
         <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4564,55 +4564,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2450.346292424342</v>
       </c>
       <c r="V5" t="n">
-        <v>2056.335593115397</v>
+        <v>2450.346292424342</v>
       </c>
       <c r="W5" t="n">
-        <v>1703.566937845283</v>
+        <v>2450.346292424342</v>
       </c>
       <c r="X5" t="n">
-        <v>1703.566937845283</v>
+        <v>2076.880534163262</v>
       </c>
       <c r="Y5" t="n">
-        <v>1703.566937845283</v>
+        <v>1686.741202187451</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4655,16 +4655,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>578.0123447940986</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>430.0992512117055</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>283.2093037137951</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>114.2095034521275</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521275</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8649647332663</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U7" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V7" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W7" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>962.91501986716</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C8" t="n">
-        <v>962.91501986716</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W8" t="n">
-        <v>1739.654191907093</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.654191907093</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y8" t="n">
-        <v>1349.514859931282</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2173.079728044489</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>2173.079728044489</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>2022.963088632153</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E10" t="n">
-        <v>2022.963088632153</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F10" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>2255.552480504987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>2255.552480504987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>2173.079728044489</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>2173.079728044489</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>2173.079728044489</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>2173.079728044489</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5038,16 +5038,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277031</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.542980734167</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653858</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>898.792518248838</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>644.1080300429511</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>538.3132412509711</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>538.3132412509711</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>538.3132412509711</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5275,37 +5275,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2358.217138262064</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>678.2225136306376</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C16" t="n">
-        <v>509.2863307027308</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D16" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1188.143731560609</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1188.143731560609</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>899.0150927741678</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>899.0150927741678</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>899.0150927741678</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>899.0150927741678</v>
+        <v>805.237814624238</v>
       </c>
       <c r="Y16" t="n">
-        <v>678.2225136306376</v>
+        <v>584.4452354807079</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5509,10 +5509,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
@@ -5539,28 +5539,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
@@ -5600,19 +5600,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M18" t="n">
-        <v>1039.489963795367</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1326.612261067772</v>
       </c>
       <c r="U19" t="n">
-        <v>964.135741824786</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V19" t="n">
-        <v>964.135741824786</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W19" t="n">
-        <v>896.5838692599799</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X19" t="n">
-        <v>668.5943183619626</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.8017392184324</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
@@ -5837,13 +5837,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
         <v>2331.418122136705</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1389.458025741502</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1389.458025741502</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1389.458025741502</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1389.458025741502</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1389.458025741502</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>1100.040855704541</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>1100.040855704541</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y22" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1722.015429253975</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4241.487948057122</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C25" t="n">
-        <v>4072.551765129214</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>4072.551765129214</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>3924.638671546821</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>3777.748724048911</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>4749.779469576118</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="V25" t="n">
-        <v>4749.779469576118</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="W25" t="n">
-        <v>4469.477498955139</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X25" t="n">
-        <v>4241.487948057122</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y25" t="n">
-        <v>4241.487948057122</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6223,55 +6223,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>757.4105722479369</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>757.4105722479369</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>607.2939328356011</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>607.2939328356011</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>460.4039853376908</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>292.2286636575113</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>141.8106552054546</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6399,37 +6399,37 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119724</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119724</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119724</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1387.841167119724</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1387.841167119724</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>1387.841167119724</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>1159.851616221707</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>939.0590370781766</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3778.208216256918</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3609.272033329011</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4749.779469576118</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>4749.779469576118</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>4663.323299334592</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>4408.638811128705</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>4408.638811128705</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>4180.649260230688</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>3959.856681087158</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,61 +6676,61 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.9563154684962</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="C34" t="n">
-        <v>392.0201325405893</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="D34" t="n">
-        <v>392.0201325405893</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241918</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688032</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799324</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471153</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557899</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557899</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771457</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655699</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W34" t="n">
-        <v>955.1031435655699</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X34" t="n">
-        <v>955.1031435655699</v>
+        <v>526.9050513325897</v>
       </c>
       <c r="Y34" t="n">
-        <v>734.3105644220398</v>
+        <v>306.1124721890595</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,25 +6931,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7016,22 +7016,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.9798268587604</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>527.0436439308535</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1275.130855347408</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>1275.130855347408</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>1275.130855347408</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>1098.42087083253</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y37" t="n">
-        <v>877.6282916890001</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="38">
@@ -7156,43 +7156,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>229.0333923118347</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>378.1030765138945</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>624.8682044203586</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>932.1883377003201</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7368,16 +7368,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>683.6408484074925</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>394.223678370532</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7411,28 +7411,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7447,13 +7447,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614725</v>
@@ -7493,22 +7493,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1427.741252113633</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1757.603879777666</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>525.6009593486384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>707.2494241788781</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2786.879505108311</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>3190.928350499668</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>3959.29649689213</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>868.4856756861153</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>699.5494927582084</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D46" t="n">
-        <v>549.4328533458727</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E46" t="n">
-        <v>549.4328533458727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>1498.916270557902</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>1270.926719659885</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>1050.134140516355</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229594</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,22 +9248,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M18" t="n">
-        <v>199.6230805871088</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,16 +9485,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M21" t="n">
-        <v>38.86002301949878</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>127.6461250100646</v>
+        <v>176.7176547498451</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>308.1251096272039</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10199,22 +10199,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>230.7151863772035</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>414.5002179180844</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>91.23759968302144</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,28 +11141,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>297.2466435761031</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>158.8724419039325</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>181.7861574325308</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0.2203487800759376</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>77.62862567512857</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>50.96659166316005</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>219.646644497433</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,19 +24129,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.600690035556454</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>75.26883114644335</v>
       </c>
     </row>
     <row r="23">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24420,19 +24420,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>227.8356641388029</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>9.024047421821933</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>66.27161735655488</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>200.6457438594668</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.211273717929174</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>118.4466012833826</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25125,22 +25125,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,19 +25365,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>50.76677071930794</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>150.7206988354921</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>199.2047724863171</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>30.90698584635157</v>
       </c>
       <c r="F46" t="n">
-        <v>13.13484058711404</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26076,22 +26076,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>854970.3543669374</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
     <row r="6">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>854970.3543669373</v>
+        <v>854970.3543669374</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>854970.3543669377</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
     <row r="14">
@@ -26316,46 +26316,46 @@
         <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583908</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="G2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="H2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="I2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="H2" t="n">
-        <v>527889.2306459072</v>
-      </c>
-      <c r="I2" t="n">
-        <v>527889.2306459071</v>
-      </c>
       <c r="J2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="K2" t="n">
         <v>527889.2306459071</v>
       </c>
       <c r="L2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="M2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="N2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.230645907</v>
       </c>
       <c r="O2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459071</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>2.695895773285884e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26432,7 +26432,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143903</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
@@ -26453,7 +26453,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="O4" t="n">
         <v>15045.6696214391</v>
@@ -26472,13 +26472,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26493,22 +26493,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-275398.7208707854</v>
+        <v>-275398.7208707853</v>
       </c>
       <c r="C6" t="n">
-        <v>314569.158343759</v>
+        <v>314569.1583437591</v>
       </c>
       <c r="D6" t="n">
-        <v>314569.1583437589</v>
+        <v>314569.1583437588</v>
       </c>
       <c r="E6" t="n">
-        <v>-104303.8014011447</v>
+        <v>-105278.3926608665</v>
       </c>
       <c r="F6" t="n">
-        <v>420856.235075751</v>
+        <v>419881.6438160298</v>
       </c>
       <c r="G6" t="n">
-        <v>420856.2350757513</v>
+        <v>419881.6438160298</v>
       </c>
       <c r="H6" t="n">
-        <v>420856.2350757516</v>
+        <v>419881.6438160298</v>
       </c>
       <c r="I6" t="n">
-        <v>420856.2350757514</v>
+        <v>419881.6438160295</v>
       </c>
       <c r="J6" t="n">
-        <v>244433.0158831584</v>
+        <v>243458.4246234368</v>
       </c>
       <c r="K6" t="n">
-        <v>420856.2350757514</v>
+        <v>419881.6438160298</v>
       </c>
       <c r="L6" t="n">
-        <v>420856.2350757512</v>
+        <v>419881.6438160299</v>
       </c>
       <c r="M6" t="n">
-        <v>286055.219841914</v>
+        <v>285080.6285821926</v>
       </c>
       <c r="N6" t="n">
-        <v>420856.2350757516</v>
+        <v>419881.6438160297</v>
       </c>
       <c r="O6" t="n">
-        <v>420856.2350757511</v>
+        <v>419881.6438160295</v>
       </c>
       <c r="P6" t="n">
-        <v>420856.235075751</v>
+        <v>419881.6438160298</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26758,25 +26758,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>48.19498915482154</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>53.3000871031237</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27590,10 +27590,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>273.8878947949727</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>6.889396900347464</v>
       </c>
       <c r="V5" t="n">
-        <v>173.465178438411</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,22 +27779,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>75.30176537689283</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27821,16 +27821,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>146.7089181598059</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>257.3913097891236</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>10.52067551358147</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28061,16 +28061,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>170.4896183879348</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29471,7 +29471,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>-2.53354608527818e-12</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29930,7 +29930,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-2.53354608527818e-12</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-4.705712004706465e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879391</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734255</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415662</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315245</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507405</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>268.0367344586612</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M18" t="n">
-        <v>510.0474576375751</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M21" t="n">
-        <v>349.2844000699651</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315247</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>438.070502060531</v>
+        <v>487.1420318003114</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>618.5494866776701</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515205989</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36919,19 +36919,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>541.1395634276697</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556155</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>747.6947913160973</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>133.1477786379281</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>579.6103458172112</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
         <v>59.82538970349808</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>408.1301468599568</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
@@ -38113,10 +38113,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2190976.710000411</v>
+        <v>2195915.972849442</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10017056.05358071</v>
+        <v>10017056.05358072</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>360.4840829176713</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>305.349793890226</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,13 +834,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>14.46389722690851</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>88.13926048022573</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>244.3347706079418</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>59.66385641544539</v>
+        <v>59.66385641544551</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>20.52965284373308</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>163.8950372953901</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>25.31590541686235</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>86.37912225534515</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>17.55664752376691</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>148.0810297139086</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>170.5809693952292</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>85.39633870205157</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>58.40168825977442</v>
+        <v>224.8952567231525</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>115.5269768002142</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>26.97444673954864</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>118.4898845065121</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>58.4016882597743</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4309,19 +4309,19 @@
         <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1309.714918859356</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D2" t="n">
-        <v>1309.714918859356</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="E2" t="n">
-        <v>1309.714918859356</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="F2" t="n">
-        <v>898.729014069748</v>
+        <v>529.7664971293364</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>515.8430930679273</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1686.741202187451</v>
+        <v>1448.576038264086</v>
       </c>
       <c r="C5" t="n">
-        <v>1317.778685247039</v>
+        <v>1079.613521323674</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>721.3478227169235</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>721.3478227169235</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>714.40232196772</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>296.4385138659069</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2450.346292424342</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2450.346292424342</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2450.346292424342</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>2076.880534163262</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="Y5" t="n">
-        <v>1686.741202187451</v>
+        <v>1448.576038264086</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940986</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117055</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F7" t="n">
-        <v>283.2093037137951</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2095034521275</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H7" t="n">
-        <v>114.2095034521275</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2476.569858826099</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1352.114858251602</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>966.3266056533573</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>555.3407008637498</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2476.569858826099</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2476.569858826099</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2476.569858826099</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2476.569858826099</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2476.569858826099</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2476.569858826099</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>2476.569858826099</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482876</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359519</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355875</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -5047,13 +5047,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5126,16 +5126,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>912.3640997703109</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>743.427916842404</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>593.3112774300682</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>593.3112774300682</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>446.4213299321578</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>912.3640997703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,13 +5357,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
         <v>1247.466478653857</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>584.4452354807079</v>
+        <v>265.3690873100869</v>
       </c>
       <c r="C16" t="n">
-        <v>415.509052552801</v>
+        <v>265.3690873100869</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>265.3690873100869</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>265.3690873100869</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>265.3690873100869</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150548</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X16" t="n">
-        <v>805.237814624238</v>
+        <v>447.0175521403266</v>
       </c>
       <c r="Y16" t="n">
-        <v>584.4452354807079</v>
+        <v>447.0175521403266</v>
       </c>
     </row>
     <row r="17">
@@ -5494,40 +5494,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5539,25 +5539,25 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1326.612261067772</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1037.48362228133</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>782.7991340754431</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>493.3819640384826</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,67 +5731,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>241.9805482336712</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6156,7 +6156,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>1439.9246662551</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V25" t="n">
-        <v>1185.240178049213</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W25" t="n">
-        <v>895.8230080122524</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>667.8334571142351</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.040877970705</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,19 +6302,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6445,55 +6445,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6530,28 +6530,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,55 +6597,55 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688034</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799327</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471155</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S31" t="n">
         <v>1382.222354598086</v>
@@ -6663,10 +6663,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="32">
@@ -6679,40 +6679,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6721,7 +6721,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>124.4640073588198</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>124.4640073588198</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>124.4640073588198</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>124.4640073588198</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
         <v>97.21709146028584</v>
@@ -6888,22 +6888,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>1044.311772267568</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>754.894602230607</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>526.9050513325897</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>306.1124721890595</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,16 +6916,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6937,28 +6937,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7128,19 +7128,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655738</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>665.6859735286132</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X37" t="n">
-        <v>437.6964226305959</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.9038434870658</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="38">
@@ -7165,28 +7165,28 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7368,7 +7368,7 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
         <v>325.2066423583032</v>
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,40 +7396,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7596,10 +7596,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
         <v>869.3083006011506</v>
@@ -7651,7 +7651,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,13 +7660,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,19 +8774,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>176.7176547498451</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>80.11444620803243</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>148.9369209396107</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>77.62862567512857</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>50.96659166316005</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24132,13 +24132,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>63.21913431616079</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>75.26883114644335</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24420,7 +24420,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>227.8356641388029</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>82.39383318338905</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>118.4466012833826</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>61.34209567542518</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25368,7 +25368,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>30.90698584635157</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>854970.3543669375</v>
+        <v>854970.3543669374</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>854970.3543669374</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
     <row r="13">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583908</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="G2" t="n">
         <v>527889.2306459071</v>
@@ -26334,28 +26334,28 @@
         <v>527889.2306459071</v>
       </c>
       <c r="I2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="J2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="K2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="L2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="L2" t="n">
-        <v>527889.2306459072</v>
-      </c>
       <c r="M2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="N2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="O2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.230645907</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925926</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26432,7 +26432,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143903</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
@@ -26441,7 +26441,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
@@ -26453,7 +26453,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
         <v>15045.6696214391</v>
@@ -26472,7 +26472,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26481,7 +26481,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26493,25 +26493,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-275398.7208707853</v>
       </c>
       <c r="C6" t="n">
-        <v>314569.1583437591</v>
+        <v>314569.1583437589</v>
       </c>
       <c r="D6" t="n">
-        <v>314569.1583437588</v>
+        <v>314569.1583437589</v>
       </c>
       <c r="E6" t="n">
-        <v>-105278.3926608665</v>
+        <v>-104401.2605271168</v>
       </c>
       <c r="F6" t="n">
-        <v>419881.6438160298</v>
+        <v>420758.7759497789</v>
       </c>
       <c r="G6" t="n">
-        <v>419881.6438160298</v>
+        <v>420758.7759497793</v>
       </c>
       <c r="H6" t="n">
-        <v>419881.6438160298</v>
+        <v>420758.7759497793</v>
       </c>
       <c r="I6" t="n">
-        <v>419881.6438160295</v>
+        <v>420758.775949779</v>
       </c>
       <c r="J6" t="n">
-        <v>243458.4246234368</v>
+        <v>244335.5567571864</v>
       </c>
       <c r="K6" t="n">
-        <v>419881.6438160298</v>
+        <v>420758.7759497789</v>
       </c>
       <c r="L6" t="n">
-        <v>419881.6438160299</v>
+        <v>420758.7759497793</v>
       </c>
       <c r="M6" t="n">
-        <v>285080.6285821926</v>
+        <v>285957.7607159418</v>
       </c>
       <c r="N6" t="n">
-        <v>419881.6438160297</v>
+        <v>420758.775949779</v>
       </c>
       <c r="O6" t="n">
-        <v>419881.6438160295</v>
+        <v>420758.775949779</v>
       </c>
       <c r="P6" t="n">
-        <v>419881.6438160298</v>
+        <v>420758.7759497791</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26749,7 +26749,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26758,28 +26758,28 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="O3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="P3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>53.3000871031237</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>18.57297887413119</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>141.7069916148866</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>235.7835122841314</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>6.889396900347464</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>75.30176537689283</v>
+        <v>75.30176537689272</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>393.2545171770619</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>10.52067551358147</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>120.1051426060689</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -29295,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29696,7 +29696,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-4.705712004706465e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,43 +33101,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q12" t="n">
         <v>88.01303278507413</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35734,19 +35734,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>487.1420318003114</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299068</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
